--- a/forecasts/data_analysis_reports/Sample_Data.xlsx
+++ b/forecasts/data_analysis_reports/Sample_Data.xlsx
@@ -272,8 +272,8 @@
   </sheetPr>
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A972" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A974" activeCellId="0" sqref="A974"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -78125,6 +78125,9 @@
       </c>
     </row>
     <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A974" s="4" t="n">
+        <v>2022</v>
+      </c>
       <c r="B974" s="2" t="s">
         <v>27</v>
       </c>
@@ -78205,6 +78208,9 @@
       </c>
     </row>
     <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A975" s="4" t="n">
+        <v>2022</v>
+      </c>
       <c r="B975" s="2" t="s">
         <v>28</v>
       </c>
@@ -78285,6 +78291,9 @@
       </c>
     </row>
     <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A976" s="4" t="n">
+        <v>2022</v>
+      </c>
       <c r="B976" s="2" t="s">
         <v>29</v>
       </c>
@@ -78365,6 +78374,9 @@
       </c>
     </row>
     <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A977" s="4" t="n">
+        <v>2022</v>
+      </c>
       <c r="B977" s="2" t="s">
         <v>30</v>
       </c>
@@ -78445,6 +78457,9 @@
       </c>
     </row>
     <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A978" s="4" t="n">
+        <v>2022</v>
+      </c>
       <c r="B978" s="2" t="s">
         <v>31</v>
       </c>
@@ -78525,6 +78540,9 @@
       </c>
     </row>
     <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A979" s="4" t="n">
+        <v>2022</v>
+      </c>
       <c r="B979" s="2" t="s">
         <v>32</v>
       </c>
@@ -78605,6 +78623,9 @@
       </c>
     </row>
     <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A980" s="4" t="n">
+        <v>2022</v>
+      </c>
       <c r="B980" s="2" t="s">
         <v>33</v>
       </c>
@@ -78685,6 +78706,9 @@
       </c>
     </row>
     <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A981" s="4" t="n">
+        <v>2022</v>
+      </c>
       <c r="B981" s="2" t="s">
         <v>34</v>
       </c>
@@ -78765,6 +78789,9 @@
       </c>
     </row>
     <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A982" s="4" t="n">
+        <v>2022</v>
+      </c>
       <c r="B982" s="2" t="s">
         <v>35</v>
       </c>
@@ -78845,6 +78872,9 @@
       </c>
     </row>
     <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A983" s="4" t="n">
+        <v>2022</v>
+      </c>
       <c r="B983" s="2" t="s">
         <v>36</v>
       </c>
@@ -78925,6 +78955,9 @@
       </c>
     </row>
     <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A984" s="4" t="n">
+        <v>2022</v>
+      </c>
       <c r="B984" s="2" t="s">
         <v>37</v>
       </c>
@@ -79005,6 +79038,9 @@
       </c>
     </row>
     <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A985" s="1" t="n">
+        <v>2022</v>
+      </c>
       <c r="B985" s="2" t="s">
         <v>38</v>
       </c>
@@ -79085,6 +79121,9 @@
       </c>
     </row>
     <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A986" s="4" t="n">
+        <v>2023</v>
+      </c>
       <c r="B986" s="2" t="s">
         <v>27</v>
       </c>
@@ -79165,6 +79204,9 @@
       </c>
     </row>
     <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A987" s="4" t="n">
+        <v>2023</v>
+      </c>
       <c r="B987" s="2" t="s">
         <v>28</v>
       </c>
@@ -79245,6 +79287,9 @@
       </c>
     </row>
     <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A988" s="4" t="n">
+        <v>2023</v>
+      </c>
       <c r="B988" s="2" t="s">
         <v>29</v>
       </c>
@@ -79325,6 +79370,9 @@
       </c>
     </row>
     <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A989" s="4" t="n">
+        <v>2023</v>
+      </c>
       <c r="B989" s="2" t="s">
         <v>30</v>
       </c>
@@ -79405,6 +79453,9 @@
       </c>
     </row>
     <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A990" s="4" t="n">
+        <v>2023</v>
+      </c>
       <c r="B990" s="2" t="s">
         <v>31</v>
       </c>
@@ -79485,6 +79536,9 @@
       </c>
     </row>
     <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A991" s="4" t="n">
+        <v>2023</v>
+      </c>
       <c r="B991" s="2" t="s">
         <v>32</v>
       </c>
@@ -79565,6 +79619,9 @@
       </c>
     </row>
     <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A992" s="1" t="n">
+        <v>2023</v>
+      </c>
       <c r="B992" s="2" t="s">
         <v>33</v>
       </c>
@@ -80143,7 +80200,7 @@
       </c>
     </row>
     <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="4" t="n">
+      <c r="A999" s="2" t="n">
         <v>2024</v>
       </c>
       <c r="B999" s="2" t="s">
@@ -80226,7 +80283,7 @@
       </c>
     </row>
     <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="4" t="n">
+      <c r="A1000" s="2" t="n">
         <v>2024</v>
       </c>
       <c r="B1000" s="2" t="s">
@@ -80309,7 +80366,7 @@
       </c>
     </row>
     <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1001" s="4" t="n">
+      <c r="A1001" s="2" t="n">
         <v>2024</v>
       </c>
       <c r="B1001" s="2" t="s">

--- a/forecasts/data_analysis_reports/Sample_Data.xlsx
+++ b/forecasts/data_analysis_reports/Sample_Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="39">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -146,7 +146,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -175,12 +175,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,7 +226,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -247,10 +241,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -270,10 +260,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA1001"/>
+  <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A972" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A974" activeCellId="0" sqref="A974"/>
+      <selection pane="topLeft" activeCell="F1001" activeCellId="0" sqref="F1001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -78125,7 +78115,7 @@
       </c>
     </row>
     <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="4" t="n">
+      <c r="A974" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="B974" s="2" t="s">
@@ -78208,7 +78198,7 @@
       </c>
     </row>
     <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="4" t="n">
+      <c r="A975" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="B975" s="2" t="s">
@@ -78291,7 +78281,7 @@
       </c>
     </row>
     <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="4" t="n">
+      <c r="A976" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="B976" s="2" t="s">
@@ -78374,7 +78364,7 @@
       </c>
     </row>
     <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A977" s="4" t="n">
+      <c r="A977" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="B977" s="2" t="s">
@@ -78457,7 +78447,7 @@
       </c>
     </row>
     <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A978" s="4" t="n">
+      <c r="A978" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="B978" s="2" t="s">
@@ -78540,7 +78530,7 @@
       </c>
     </row>
     <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="4" t="n">
+      <c r="A979" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="B979" s="2" t="s">
@@ -78623,7 +78613,7 @@
       </c>
     </row>
     <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A980" s="4" t="n">
+      <c r="A980" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="B980" s="2" t="s">
@@ -78706,7 +78696,7 @@
       </c>
     </row>
     <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="4" t="n">
+      <c r="A981" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="B981" s="2" t="s">
@@ -78789,7 +78779,7 @@
       </c>
     </row>
     <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A982" s="4" t="n">
+      <c r="A982" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="B982" s="2" t="s">
@@ -78872,7 +78862,7 @@
       </c>
     </row>
     <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A983" s="4" t="n">
+      <c r="A983" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="B983" s="2" t="s">
@@ -78955,7 +78945,7 @@
       </c>
     </row>
     <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A984" s="4" t="n">
+      <c r="A984" s="2" t="n">
         <v>2022</v>
       </c>
       <c r="B984" s="2" t="s">
@@ -79121,7 +79111,7 @@
       </c>
     </row>
     <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A986" s="4" t="n">
+      <c r="A986" s="2" t="n">
         <v>2023</v>
       </c>
       <c r="B986" s="2" t="s">
@@ -79204,7 +79194,7 @@
       </c>
     </row>
     <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="4" t="n">
+      <c r="A987" s="2" t="n">
         <v>2023</v>
       </c>
       <c r="B987" s="2" t="s">
@@ -79287,7 +79277,7 @@
       </c>
     </row>
     <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="4" t="n">
+      <c r="A988" s="2" t="n">
         <v>2023</v>
       </c>
       <c r="B988" s="2" t="s">
@@ -79370,7 +79360,7 @@
       </c>
     </row>
     <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="4" t="n">
+      <c r="A989" s="2" t="n">
         <v>2023</v>
       </c>
       <c r="B989" s="2" t="s">
@@ -79453,7 +79443,7 @@
       </c>
     </row>
     <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="4" t="n">
+      <c r="A990" s="2" t="n">
         <v>2023</v>
       </c>
       <c r="B990" s="2" t="s">
@@ -79536,7 +79526,7 @@
       </c>
     </row>
     <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="4" t="n">
+      <c r="A991" s="2" t="n">
         <v>2023</v>
       </c>
       <c r="B991" s="2" t="s">
@@ -80365,89 +80355,7 @@
         <v>45243720</v>
       </c>
     </row>
-    <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1001" s="2" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B1001" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1001" s="2" t="n">
-        <v>144297.25</v>
-      </c>
-      <c r="D1001" s="2" t="n">
-        <v>25090.04296875</v>
-      </c>
-      <c r="E1001" s="2" t="n">
-        <v>87711.7578125</v>
-      </c>
-      <c r="F1001" s="2" t="n">
-        <v>26656.111328125</v>
-      </c>
-      <c r="G1001" s="2" t="n">
-        <v>2645.291015625</v>
-      </c>
-      <c r="H1001" s="2" t="n">
-        <v>2594158</v>
-      </c>
-      <c r="I1001" s="2" t="n">
-        <v>500562.28125</v>
-      </c>
-      <c r="J1001" s="2" t="n">
-        <v>439773.84375</v>
-      </c>
-      <c r="K1001" s="2" t="n">
-        <v>368564.53125</v>
-      </c>
-      <c r="L1001" s="2" t="n">
-        <v>1103863.25</v>
-      </c>
-      <c r="M1001" s="2" t="n">
-        <v>91129.6953125</v>
-      </c>
-      <c r="N1001" s="2" t="n">
-        <v>260567.390625</v>
-      </c>
-      <c r="O1001" s="2" t="n">
-        <v>0.302214741706848</v>
-      </c>
-      <c r="P1001" s="2" t="n">
-        <v>82128.9765625</v>
-      </c>
-      <c r="Q1001" s="2" t="n">
-        <v>64046.15234375</v>
-      </c>
-      <c r="R1001" s="2" t="n">
-        <v>65769.125</v>
-      </c>
-      <c r="S1001" s="2" t="n">
-        <v>1017053.125</v>
-      </c>
-      <c r="T1001" s="2" t="n">
-        <v>28.7541580200195</v>
-      </c>
-      <c r="U1001" s="2" t="n">
-        <v>42658.17578125</v>
-      </c>
-      <c r="V1001" s="2" t="n">
-        <v>81485.25</v>
-      </c>
-      <c r="W1001" s="2" t="n">
-        <v>891570.3125</v>
-      </c>
-      <c r="X1001" s="2" t="n">
-        <v>937760.125</v>
-      </c>
-      <c r="Y1001" s="2" t="n">
-        <v>630880.25</v>
-      </c>
-      <c r="Z1001" s="2" t="n">
-        <v>334014.6875</v>
-      </c>
-      <c r="AA1001" s="2" t="n">
-        <v>46882096</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
